--- a/test.xlsx
+++ b/test.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB0F012-9755-4FC9-B17F-22713660DFC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E64AB9-DAB8-47EF-8A9A-2CDD851D6153}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-16320" yWindow="-3300" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="59">
   <si>
     <t>#1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -202,6 +203,22 @@
   </si>
   <si>
     <t>Nov 13-Nov 26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tests</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI-ADMIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JS-TAG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>API</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -566,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1091,4 +1108,50 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63803FCB-C233-4C04-B69A-73766898174D}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>